--- a/data_pe/datos.xlsx
+++ b/data_pe/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e110ddf98be3c66/Documentos/GitHub/Gibbs-Sampling-VAR/data_pe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FC6A4473-E809-4E31-AE1D-62CAC0276684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9A817B-70EF-47CB-B332-E0199C5CB190}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FC6A4473-E809-4E31-AE1D-62CAC0276684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5EA26A-9238-4ECF-AACD-DCFDCDA2466E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D4786166-A570-4E06-9C65-46D65764EE5D}"/>
   </bookViews>
@@ -880,6 +880,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3341,10 +3342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ED2502-06F0-4FD3-9D11-38787E2E005F}">
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:AN256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="W255" sqref="W255:AN256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11752,7 +11753,7 @@
         <v>-18.570925142180702</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -11787,7 +11788,7 @@
         <v>29.19796320920085</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>27.748356566451616</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>35.9456480910913</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>22.787729041394016</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>98.735843955725343</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>45.976536628438765</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>53.168377826095195</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>47.092521105504346</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>49.262354154800889</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>70.434234036381952</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>120.21414382819333</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -12172,7 +12173,7 @@
         <v>221.01052337195716</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -12207,66 +12208,68 @@
         <v>133.30158925663693</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W255" t="s">
         <v>270</v>
       </c>
-      <c r="B254" s="5">
+      <c r="X255" s="5">
         <v>1.8346497402519368</v>
       </c>
-      <c r="D254" s="5">
+      <c r="Y255" s="5"/>
+      <c r="Z255" s="5">
         <v>4.75</v>
       </c>
-      <c r="F254" s="5">
+      <c r="AA255" s="5"/>
+      <c r="AB255" s="5">
         <v>-2.0811658924685927</v>
       </c>
-      <c r="G254" s="5">
+      <c r="AC255" s="5">
         <v>2.5012971786029086</v>
       </c>
-      <c r="H254">
+      <c r="AD255">
         <v>4.5408406113672699</v>
       </c>
-      <c r="I254" s="5">
+      <c r="AE255" s="5">
         <v>6.0083655757740013</v>
       </c>
-      <c r="J254" s="5">
+      <c r="AF255" s="5">
         <v>2.1971498657604531</v>
       </c>
-      <c r="R254" s="6">
+      <c r="AN255" s="6">
         <v>164.57565553631409</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E256"/>
+      <c r="W256" t="s">
         <v>271</v>
       </c>
-      <c r="B255" s="5">
+      <c r="X256" s="5">
         <v>1.4665228520268736</v>
       </c>
-      <c r="D255" s="5">
+      <c r="Y256" s="5"/>
+      <c r="Z256" s="5">
         <v>4.75</v>
       </c>
-      <c r="F255" s="5">
+      <c r="AA256" s="5"/>
+      <c r="AB256" s="5">
         <v>-2.6551656324529107</v>
       </c>
-      <c r="G255" s="5">
+      <c r="AC256" s="5">
         <v>2.3736878496068798</v>
       </c>
-      <c r="H255">
+      <c r="AD256">
         <v>5.0499657236870963</v>
       </c>
-      <c r="I255" s="5">
+      <c r="AE256" s="5">
         <v>11.376372175587084</v>
       </c>
-      <c r="J255" s="5">
+      <c r="AF256" s="5">
         <v>-7.8689622902540144</v>
       </c>
-      <c r="R255" s="6">
+      <c r="AN256" s="6">
         <v>201.58597454442977</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E256"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
